--- a/data/Framework.xlsx
+++ b/data/Framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gesisev-my.sharepoint.com/personal/lukas_birkenmaier_gesis_org/Documents/Projekte Phd/1_Papers/Framework Paper Validity/Shiny App/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="798" documentId="11_AD4DB114E441178AC67DF42DEE54CFF4693EDF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5A35ACF-F8B3-4759-B04A-884E9049725A}"/>
+  <xr:revisionPtr revIDLastSave="799" documentId="11_AD4DB114E441178AC67DF42DEE54CFF4693EDF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB9A2A97-92E9-4971-98CC-80D8293D3023}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2480" windowWidth="14400" windowHeight="8270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Framework" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="90">
   <si>
     <t>Construct Definition</t>
   </si>
@@ -289,9 +289,6 @@
   </si>
   <si>
     <t>Systematic Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Feature Importance Analysis</t>
@@ -1097,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1423,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
@@ -1462,11 +1459,11 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>27</v>
@@ -1783,7 +1780,7 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
@@ -1857,7 +1854,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
@@ -1879,7 +1876,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M21" s="26"/>
     </row>
@@ -2105,7 +2102,7 @@
     </row>
     <row r="28" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>3</v>
@@ -2140,7 +2137,7 @@
     </row>
     <row r="29" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>3</v>
@@ -2175,7 +2172,7 @@
     </row>
     <row r="30" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>3</v>
@@ -2210,7 +2207,7 @@
     </row>
     <row r="31" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>3</v>
@@ -2245,7 +2242,7 @@
     </row>
     <row r="32" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>3</v>
@@ -2280,7 +2277,7 @@
     </row>
     <row r="33" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>3</v>

--- a/data/Framework.xlsx
+++ b/data/Framework.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gesisev-my.sharepoint.com/personal/lukas_birkenmaier_gesis_org/Documents/Projekte Phd/1_Papers/Framework Paper Validity/Shiny App/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birkenls\Documents\Git-Projekte\Shiny App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="799" documentId="11_AD4DB114E441178AC67DF42DEE54CFF4693EDF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB9A2A97-92E9-4971-98CC-80D8293D3023}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E449E875-B09C-4231-99DD-1B2B23CB06EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="8360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Framework" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="120">
   <si>
     <t>Construct Definition</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Conceptual Considerations</t>
   </si>
   <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Validation Step</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Dictionary</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>Unsupervised: Text Scaling</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Human Assessment</t>
   </si>
   <si>
@@ -129,15 +120,9 @@
     <t>Unsupervised: Topic Model</t>
   </si>
   <si>
-    <t>Competence building to understand the context / dimensionality of the construct</t>
-  </si>
-  <si>
     <t>Identifying the frequency of (N-)words in each topic</t>
   </si>
   <si>
-    <t>Inspect and compare topic coherence metrics (e..g, C_v, C_p, C_uci, C_umass)</t>
-  </si>
-  <si>
     <t>Inspecting and applying threshold for min. number of (N-)tokens matched</t>
   </si>
   <si>
@@ -153,18 +138,12 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Inspecting individual token /text contribution to predict labels for specific tokens / texts</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conducting compuatational text intrusion tasks </t>
   </si>
   <si>
     <t>Conducting word intrusion tasks for human coders in top-words per topic</t>
   </si>
   <si>
-    <t>Metric</t>
-  </si>
-  <si>
     <t>Subjective Assessment</t>
   </si>
   <si>
@@ -234,15 +213,9 @@
     <t>Conceptual Argumentation</t>
   </si>
   <si>
-    <t>Manual precoding to identifiy whether the construct is detectable by human coders</t>
-  </si>
-  <si>
     <t>Denny and Spirling (2018)</t>
   </si>
   <si>
-    <t>Visual inspection of outstanding measures</t>
-  </si>
-  <si>
     <t>Visual inspection of measures over time</t>
   </si>
   <si>
@@ -291,15 +264,9 @@
     <t>Systematic Testing</t>
   </si>
   <si>
-    <t>Feature Importance Analysis</t>
-  </si>
-  <si>
     <t>Inspecting XAI visualizations (LIME, ICE, Partial Dependence, Breakdown Plot)</t>
   </si>
   <si>
-    <t xml:space="preserve">Conducting error analysis of misclassifications </t>
-  </si>
-  <si>
     <t>Röttger et al. (2021)</t>
   </si>
   <si>
@@ -307,6 +274,133 @@
   </si>
   <si>
     <t>Continuous Evaluation: Robustness Checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual inspection of outliers / measures with extreme values </t>
+  </si>
+  <si>
+    <t>Error Analysis</t>
+  </si>
+  <si>
+    <t>Conducting error analysis of oustanding or deliberatively choosen measures</t>
+  </si>
+  <si>
+    <t>Performance Criteria</t>
+  </si>
+  <si>
+    <t>Recommended</t>
+  </si>
+  <si>
+    <t>Have I considered different feature importance metrics and their effects on the model's performance? Have I considered the interpretability and relevance of the top-ranked features in the context of the research question?</t>
+  </si>
+  <si>
+    <t>Have I chosen appropriate XAI techniques based on the model complexity, data size, and research question? Have I checked for the stability and consistency of the explanations across different subsets of data?</t>
+  </si>
+  <si>
+    <t>Have I inspected the top-ranked words in each topic and assessed their semantic coherence and specificity?</t>
+  </si>
+  <si>
+    <t>Have I interpreted the word weights in the context of the research question and domain knowledge, and avoided overfitting to idiosyncratic features of the training data?</t>
+  </si>
+  <si>
+    <t>Have I assessed the model's confidence level on individual predictions and analyzed the distribution of confidence scores?</t>
+  </si>
+  <si>
+    <t>Have I calculated multiple coherence metrics and compared their consistency and correlation?</t>
+  </si>
+  <si>
+    <t>Have I defined a reasonable threshold for the minimum number of matched tokens based on the data size, text complexity, and research question?
+Have I assessed the impact of the threshold on the model's performance and sensitivity to noise?</t>
+  </si>
+  <si>
+    <t>Have I identified and visualized the outliers or extreme values in the text data or analysis results?</t>
+  </si>
+  <si>
+    <t>Have I plotted the temporal trends of relevant measures (e.g., topic prevalence, sentiment score) and assessed their stability and consistency over time?
+Have I identified the potential causal factors or events that may influence the trends and validated the relationships using statistical tests or domain knowledge?</t>
+  </si>
+  <si>
+    <t>Have I compared the relevant text measures (e.g.ideological positions or sentiment scores) between different groups and visualized the differences?</t>
+  </si>
+  <si>
+    <t>Have I conducted a pilot study using manual coding to evaluate the inter-rater agreement and reliability on detecting the construct by hand?</t>
+  </si>
+  <si>
+    <t>Have I selected a dataset that is representative and relevant to the research question and population of interest?
+Have I assessed the quality and completeness of the dataset and checked for potential biases or confounding variables?</t>
+  </si>
+  <si>
+    <t>Have I selected the appropriate level of analysis based on the research question, data size, and computational resources? Have I considered potential problems when aggregating scores from lower to higher levels (e.g., sentence to text level)</t>
+  </si>
+  <si>
+    <t>Have I justified the preprocessing decisions based on the research question, data quality, and/or computational efficiency?</t>
+  </si>
+  <si>
+    <t>Have I selected the appropriate method based on the research question, data characteristics, and model assumptions?</t>
+  </si>
+  <si>
+    <t>Have I conducted an error analysis to evaluate the sources and types of errors associated with the measures and identified potential improvements or remedies?</t>
+  </si>
+  <si>
+    <t>Have I designed and conducted computational intrusion tasks to evaluate the model's sensitivity and specificity to various types of perturbations in the text data?
+Have I analyzed the intrusion results to identify the key features or patterns that the model relies on and validated their relevance and consistency with the research question and domain knowledge?</t>
+  </si>
+  <si>
+    <t>Have I designed and conducted functional tests to evaluate the model's ability to detect specific patternsin a realistic or simulated scenario?</t>
+  </si>
+  <si>
+    <t>Have I designed and conducted word intrusion tasks to evaluate the human coders' ability to identify the intruder word among the top words in a topic?</t>
+  </si>
+  <si>
+    <t>Have I conducted back-coding by human coders to evaluate the interpretability and validity of the topics generated by the model?</t>
+  </si>
+  <si>
+    <t>Have I collected and labeled a subset of the data using a codebook or pairwise comparison method to serve as the gold standard for evaluation?</t>
+  </si>
+  <si>
+    <t>Have I compared the measures generated by the model with alternative text-based methods (e.g., topic modeling, sentiment analysis, word embeddings) to assess their interrelationsships?</t>
+  </si>
+  <si>
+    <t>Have I collected or generated surrogate labels (e.g., expert surveys, contextual labels) to evaluate the model's performance and generalization to new data or domains?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have I formulated substantive and established hypotheses about the relationsship of my measures with external criteria? Have I confirmed these relationship empircally? </t>
+  </si>
+  <si>
+    <t>Have I rerun the analysis using different preprocessing settings (e.g., stopword removal, stemming, lemmatization) to evaluate their impact on the results?</t>
+  </si>
+  <si>
+    <t>Have I replicated the same study using different levels of aggregation (e.g., token, word, sentence, paragraph, document level) to evaluate their impact on the results?</t>
+  </si>
+  <si>
+    <t>Have I replicated the same study using a different, but related dataset to evaluate the generalizability and robustness of the analysis?</t>
+  </si>
+  <si>
+    <t>Have I rerun the analysis using different number of topics to evaluate the sensitivity and interpretability of the model?</t>
+  </si>
+  <si>
+    <t>Have I rerun the analysis using different subsets of the data to evaluate the robustness and generalizability of the model?</t>
+  </si>
+  <si>
+    <t>Have I rerun the analysis using different thresholds (e.g., min. number of tokens matched, max. document frequency) to evaluate their impact on the results?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competence building and dimensionality understanding </t>
+  </si>
+  <si>
+    <t>Manual precoding for human detectability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have I conducted a literature review or consulted with domain experts to gain a comprehensive understanding of the construct and its relevant dimensions? </t>
+  </si>
+  <si>
+    <t>Concucting Feature Importance Analysis</t>
+  </si>
+  <si>
+    <t>Inspecting and comparing topic coherence metrics (e..g, C_v, C_p, C_uci, C_umass)</t>
+  </si>
+  <si>
+    <t>Considerations</t>
   </si>
 </sst>
 </file>
@@ -531,7 +625,77 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -614,15 +778,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -639,9 +794,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -745,55 +897,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -808,22 +911,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E9AB95B-4EEA-4282-9D22-DD7F391E0212}" name="Table1" displayName="Table1" ref="A1:M33" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A1:M33" xr:uid="{1E9AB95B-4EEA-4282-9D22-DD7F391E0212}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1516A254-2A32-4A65-BC9C-86B97687981B}" name="Phase" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{57EF7939-9DDB-495A-B9CE-E682AAF64BF9}" name="Dimension" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{2D900A58-94B4-46CA-ABA8-2B53873F6F46}" name="Description Category" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{6CBA87E5-0DF8-4F5F-91DF-92ECF5532676}" name="Validation Step" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{9B978403-2EBC-48FD-B830-E39F7CAC8836}" name="Description" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{7D2F6E85-4748-4748-A045-55F988A4444F}" name="Metric" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{1A4DC738-179D-4948-A9B1-E3DFC1959547}" name="Type" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{EF972E49-6F4D-4E1F-834F-92F1FBA47FFC}" name="Dictionary" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{CB2AEEF3-11F3-44E6-821C-0BCEA4EBF845}" name="Supervised" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{5D139B14-0950-4559-8406-E3ADBBF36F77}" name="Unsupervised: Topic Model" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{E1027B82-FA35-4AD4-823E-DC79823670DE}" name="Unsupervised: Text Scaling" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{71212B09-65E1-4981-BD46-AD5B7EF667AE}" name="Source / References" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{E3246A4B-723D-49BC-ACB1-94512C4B4C30}" name="Comment" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E9AB95B-4EEA-4282-9D22-DD7F391E0212}" name="Table1" displayName="Table1" ref="A1:L32" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A1:L32" xr:uid="{1E9AB95B-4EEA-4282-9D22-DD7F391E0212}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{1516A254-2A32-4A65-BC9C-86B97687981B}" name="Phase" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{57EF7939-9DDB-495A-B9CE-E682AAF64BF9}" name="Dimension" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{2D900A58-94B4-46CA-ABA8-2B53873F6F46}" name="Description Category" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{6CBA87E5-0DF8-4F5F-91DF-92ECF5532676}" name="Validation Step" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{7D2F6E85-4748-4748-A045-55F988A4444F}" name="Performance Criteria" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{B939FA8F-77D8-4F77-82C1-E5F188FBEA9C}" name="Considerations" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{EF972E49-6F4D-4E1F-834F-92F1FBA47FFC}" name="Dictionary" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{CB2AEEF3-11F3-44E6-821C-0BCEA4EBF845}" name="Supervised" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{5D139B14-0950-4559-8406-E3ADBBF36F77}" name="Unsupervised: Topic Model" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{E1027B82-FA35-4AD4-823E-DC79823670DE}" name="Unsupervised: Text Scaling" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{71212B09-65E1-4981-BD46-AD5B7EF667AE}" name="Source / References" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{E3246A4B-723D-49BC-ACB1-94512C4B4C30}" name="Comment" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1092,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1104,129 +1206,123 @@
     <col min="2" max="2" width="26.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="41" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="10" width="13.26953125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" style="2" customWidth="1"/>
+    <col min="7" max="10" width="13.26953125" style="2" customWidth="1"/>
     <col min="11" max="12" width="18.1796875" style="1" customWidth="1"/>
     <col min="13" max="13" width="17.1796875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>15</v>
+        <v>116</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>16</v>
+        <v>83</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="9"/>
+        <v>115</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="F3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>18</v>
+        <v>94</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="203" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>13</v>
@@ -1235,35 +1331,34 @@
         <v>14</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="12"/>
+        <v>54</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="F4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>16</v>
+        <v>95</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>16</v>
+        <v>83</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>13</v>
@@ -1272,35 +1367,34 @@
         <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="F5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>15</v>
+        <v>96</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>16</v>
+        <v>83</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>13</v>
@@ -1309,35 +1403,34 @@
         <v>14</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>13</v>
@@ -1346,1004 +1439,943 @@
         <v>14</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="174" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="B8" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="F8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="E10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="F11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>26</v>
+        <v>87</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>2</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C13" s="17"/>
       <c r="D13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="17"/>
+        <v>118</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="F13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>28</v>
+        <v>89</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" s="18"/>
-    </row>
-    <row r="14" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="17"/>
+        <v>28</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="F14" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>28</v>
+        <v>90</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="M14" s="18"/>
-    </row>
-    <row r="15" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="F16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>26</v>
+        <v>92</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="19"/>
+        <v>60</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="F17" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>26</v>
+        <v>93</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:12" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="26"/>
-    </row>
-    <row r="20" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>27</v>
+        <v>77</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M21" s="26"/>
-    </row>
-    <row r="22" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>27</v>
+      <c r="F22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="A24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="A25" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="A26" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="A27" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="E27" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="23"/>
+    </row>
+    <row r="28" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A28" s="25" t="s">
-        <v>89</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M28" s="23"/>
-    </row>
-    <row r="29" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="L28" s="23"/>
+    </row>
+    <row r="29" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A29" s="25" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M29" s="23"/>
-    </row>
-    <row r="30" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="L29" s="23"/>
+    </row>
+    <row r="30" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A30" s="25" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M30" s="23"/>
-    </row>
-    <row r="31" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="L30" s="23"/>
+    </row>
+    <row r="31" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="H31" s="23" t="s">
         <v>17</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J31" s="23" t="s">
         <v>17</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M31" s="23"/>
-    </row>
-    <row r="32" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="L31" s="23"/>
+    </row>
+    <row r="32" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M32" s="23"/>
-    </row>
-    <row r="33" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A33" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M33" s="23"/>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="L32" s="23"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D74" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G34:J1048576">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+  <conditionalFormatting sqref="F33:J1048576">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A34:A1048576">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+  <conditionalFormatting sqref="A1 A33:A1048576">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"Robustness Checks"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>"External"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
       <formula>"Structural"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"Robustness Checks"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"External"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>"Structural"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K33" xr:uid="{042A54F9-30B5-4777-A1D7-2CC5AD7CAE36}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G25:J32" xr:uid="{2D11ED5D-28C9-4355-92E6-95674289FAF9}">
+      <formula1>"Recommended, Optional,n.a."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J24" xr:uid="{042A54F9-30B5-4777-A1D7-2CC5AD7CAE36}">
       <formula1>"Mandatory, Optional,n.a."</formula1>
     </dataValidation>
   </dataValidations>
@@ -2352,18 +2384,6 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EBCDB48E-3042-4473-A0FA-76B7F58474BF}">
-          <x14:formula1>
-            <xm:f>Dropdown!$A$2:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G33</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2384,17 +2404,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">

--- a/data/Framework.xlsx
+++ b/data/Framework.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birkenls\Documents\Git-Projekte\Shiny App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69664CA-71B8-4536-88A4-65926B921F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD23ECC7-B125-4CA2-8A29-15E12E8C53DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1695" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="file (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Framework" sheetId="2" r:id="rId1"/>
     <sheet name="file" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'file (2)'!$A$1:$M$32</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Framework!$A$1:$M$33</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="148">
   <si>
     <t>,"Phase","Dimension","Description Category","Validation Step","Performance Criteria","Considerations","Dictionary","Supervised","Unsupervised: Topic Model","Unsupervised: Text Scaling","Source / References","Comment"</t>
   </si>
@@ -145,18 +145,12 @@
     <t>31,"Continuous Evaluation: Robustness Checks","Measure Inspection",NA,"Rerunning the Analysis using different thresholds","Change to previous measurement outcome","Have I rerun the analysis using different thresholds (e.g., min. number of tokens matched, max. document frequency) to evaluate their impact on the results?","Optional","Optional","Optional","Optional","tba.",NA</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Phase</t>
   </si>
   <si>
     <t>Dimension</t>
   </si>
   <si>
-    <t>Description Category</t>
-  </si>
-  <si>
     <t>Validation Step</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>Competence building and dimensionality understanding</t>
   </si>
   <si>
-    <t>Evidence of Engagement with the construct</t>
-  </si>
-  <si>
     <t>Have I conducted a literature review or consulted with domain experts to gain a comprehensive understanding of the construct and its relevant dimensions?</t>
   </si>
   <si>
@@ -223,19 +214,9 @@
     <t>Design Decisions</t>
   </si>
   <si>
-    <t>Design decisions build upon the conceptualization of the analytical construct</t>
-  </si>
-  <si>
     <t>Justification on the choice of dataset</t>
   </si>
   <si>
-    <t>Conceptual Argumentation</t>
-  </si>
-  <si>
-    <t>Have I selected a dataset that is representative and relevant to the research question and population of interest?_x000D__x000D_
-Have I assessed the quality and completeness of the dataset and checked for potential biases or confounding variables?</t>
-  </si>
-  <si>
     <t>Justification on the level of analysis (token, word, sentence, paragraph, or document level)</t>
   </si>
   <si>
@@ -263,12 +244,6 @@
     <t>Model Inspection</t>
   </si>
   <si>
-    <t>Features of the model make sense semantically</t>
-  </si>
-  <si>
-    <t>Subjective Assessment</t>
-  </si>
-  <si>
     <t>Have I considered different feature importance metrics and their effects on the model's performance? Have I considered the interpretability and relevance of the top-ranked features in the context of the research question?</t>
   </si>
   <si>
@@ -299,9 +274,6 @@
     <t>Model Metrics Evaluation</t>
   </si>
   <si>
-    <t>Method-specific metrics and common thresholds are met</t>
-  </si>
-  <si>
     <t>Inspecting confidence strenghts of classifiers</t>
   </si>
   <si>
@@ -311,16 +283,10 @@
     <t>Inspecting and comparing topic coherence metrics (e..g, C_v, C_p, C_uci, C_umass)</t>
   </si>
   <si>
-    <t>Metric Comparison</t>
-  </si>
-  <si>
     <t>Have I calculated multiple coherence metrics and compared their consistency and correlation?</t>
   </si>
   <si>
     <t>Inspecting and applying threshold for min. number of (N-)tokens matched</t>
-  </si>
-  <si>
-    <t>Threshold Achievement</t>
   </si>
   <si>
     <t>Have I defined a reasonable threshold for the minimum number of matched tokens based on the data size, text complexity, and research question?_x000D__x000D_
@@ -330,9 +296,6 @@
     <t>Output Inspection</t>
   </si>
   <si>
-    <t>The measures and their descriptive statistics look plausible</t>
-  </si>
-  <si>
     <t>Visual inspection of outliers / measures with extreme values</t>
   </si>
   <si>
@@ -364,15 +327,6 @@
     <t>Systematic Testing</t>
   </si>
   <si>
-    <t>The output of the model suffices further semantic examinations</t>
-  </si>
-  <si>
-    <t>Conducting compuatational text intrusion tasks</t>
-  </si>
-  <si>
-    <t>Metric Assessment</t>
-  </si>
-  <si>
     <t>Have I designed and conducted computational intrusion tasks to evaluate the model's sensitivity and specificity to various types of perturbations in the text data?_x000D__x000D_
 Have I analyzed the intrusion results to identify the key features or patterns that the model relies on and validated their relevance and consistency with the research question and domain knowledge?</t>
   </si>
@@ -407,18 +361,12 @@
     <t>Measure Interrelation</t>
   </si>
   <si>
-    <t>Correspondence to hand-labelled data</t>
-  </si>
-  <si>
     <t>Comparing measures with hand-labelled data (via e.g., codebook or pairwise comparison)</t>
   </si>
   <si>
     <t>Have I collected and labeled a subset of the data using a codebook or pairwise comparison method to serve as the gold standard for evaluation?</t>
   </si>
   <si>
-    <t>Correspondence</t>
-  </si>
-  <si>
     <t>Comparing measures with alternative text-based methods</t>
   </si>
   <si>
@@ -440,9 +388,6 @@
     <t>Criterion Prediction</t>
   </si>
   <si>
-    <t>Test of substantive and known hypotheses</t>
-  </si>
-  <si>
     <t>Testing of substantive and established hypotheses</t>
   </si>
   <si>
@@ -458,9 +403,6 @@
     <t>Measure Inspection</t>
   </si>
   <si>
-    <t>Rerunning the Analysis using different preprocessing settings</t>
-  </si>
-  <si>
     <t>Change to previous measurement outcome</t>
   </si>
   <si>
@@ -479,25 +421,64 @@
     <t>Have I replicated the same study using a different, but related dataset to evaluate the generalizability and robustness of the analysis?</t>
   </si>
   <si>
-    <t>Rerunning the Analysis using different number of topics</t>
-  </si>
-  <si>
     <t>Have I rerun the analysis using different number of topics to evaluate the sensitivity and interpretability of the model?</t>
   </si>
   <si>
-    <t>Rerunning the Analysis using different subsets of the data</t>
-  </si>
-  <si>
     <t>Have I rerun the analysis using different subsets of the data to evaluate the robustness and generalizability of the model?</t>
   </si>
   <si>
-    <t>Rerunning the Analysis using different thresholds</t>
-  </si>
-  <si>
     <t>Have I rerun the analysis using different thresholds (e.g., min. number of tokens matched, max. document frequency) to evaluate their impact on the results?</t>
   </si>
   <si>
-    <t>Conducting Feature Importance Analysis</t>
+    <t>Evidence of engagement with the construct</t>
+  </si>
+  <si>
+    <t>Conceptual argumentation</t>
+  </si>
+  <si>
+    <t>Metric assessment</t>
+  </si>
+  <si>
+    <t>Metric comparison</t>
+  </si>
+  <si>
+    <t>Subjective assessment</t>
+  </si>
+  <si>
+    <t>Threshold achievement</t>
+  </si>
+  <si>
+    <t>Justification on the choice of hyperparameters for the method choosen</t>
+  </si>
+  <si>
+    <t>Have I selected the appropriate hyperparameter settings based on the research question, data characteristics, and model assumptions?</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Conducting feature importance analysis</t>
+  </si>
+  <si>
+    <t>Performance Criteria: Best Practices /  Guidelines</t>
+  </si>
+  <si>
+    <t>Rerunning the analysis using different preprocessing settings</t>
+  </si>
+  <si>
+    <t>Rerunning the analysis using different number of topics</t>
+  </si>
+  <si>
+    <t>Rerunning the analysis using different subsets of the data</t>
+  </si>
+  <si>
+    <t>Rerunning the analysis using different thresholds</t>
+  </si>
+  <si>
+    <t>Have I selected a dataset that is representative and relevant to the research question and population of interest?Have I assessed the quality and completeness of the dataset and checked for potential biases or confounding variables?</t>
+  </si>
+  <si>
+    <t>Conducting computational text intrusion tasks</t>
   </si>
 </sst>
 </file>
@@ -640,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,6 +799,42 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -981,9 +998,44 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1029,42 +1081,87 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1081,15 +1178,15 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="14">
+  <queryTableRefresh nextId="18">
     <queryTableFields count="13">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
+      <queryTableField id="5" name="Validation Step" tableColumnId="5"/>
+      <queryTableField id="7" name="Considerations" tableColumnId="7"/>
+      <queryTableField id="6" name="Performance Criteria" tableColumnId="6"/>
+      <queryTableField id="17" dataBound="0" tableColumnId="4"/>
       <queryTableField id="2" name="Phase" tableColumnId="2"/>
       <queryTableField id="3" name="Dimension" tableColumnId="3"/>
-      <queryTableField id="4" name="Description Category" tableColumnId="4"/>
-      <queryTableField id="5" name="Validation Step" tableColumnId="5"/>
-      <queryTableField id="6" name="Performance Criteria" tableColumnId="6"/>
-      <queryTableField id="7" name="Considerations" tableColumnId="7"/>
       <queryTableField id="8" name="Dictionary" tableColumnId="8"/>
       <queryTableField id="9" name="Supervised" tableColumnId="9"/>
       <queryTableField id="10" name="Unsupervised: Topic Model" tableColumnId="10"/>
@@ -1097,34 +1194,30 @@
       <queryTableField id="12" name="Source / References" tableColumnId="12"/>
       <queryTableField id="13" name="Comment" tableColumnId="13"/>
     </queryTableFields>
+    <queryTableDeletedFields count="1">
+      <deletedField name="Description Category"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="file" displayName="file" ref="A1:M32" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:M32" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Construct Definition"/>
-        <filter val="Design Decisions"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="file" displayName="file" ref="A1:M33" tableType="queryTable" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Phase" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Dimension" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Description Category" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Validation Step" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Performance Criteria" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Considerations" queryTableFieldId="7" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Dictionary" queryTableFieldId="8" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Supervised" queryTableFieldId="9" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Unsupervised: Topic Model" queryTableFieldId="10" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Unsupervised: Text Scaling" queryTableFieldId="11" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Source / References" queryTableFieldId="12" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="Comment" queryTableFieldId="13" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="ID" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Validation Step" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Considerations" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Performance Criteria" queryTableFieldId="6" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{8AB4732D-0FBD-4B55-8E38-8AC5F21D1442}" uniqueName="4" name="Performance Criteria: Best Practices /  Guidelines" queryTableFieldId="17" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Phase" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Dimension" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Dictionary" queryTableFieldId="8" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Supervised" queryTableFieldId="9" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Unsupervised: Topic Model" queryTableFieldId="10" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Unsupervised: Text Scaling" queryTableFieldId="11" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Source / References" queryTableFieldId="12" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="Comment" queryTableFieldId="13" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1427,1338 +1520,1313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.7265625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M1" t="s">
+      <c r="G2" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="H2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="M3" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="1" t="s">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="I31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M31" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="1" t="s">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="G32" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="H32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>52</v>
+      <c r="H33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/Framework.xlsx
+++ b/data/Framework.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birkenls\Documents\Git-Projekte\Shiny App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD23ECC7-B125-4CA2-8A29-15E12E8C53DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C66CBE-F2D6-42D6-AB26-AB26323932AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1695" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework" sheetId="2" r:id="rId1"/>
-    <sheet name="file" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="file" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Framework!$A$1:$M$33</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Framework!$A$1:$M$34</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="156">
   <si>
     <t>,"Phase","Dimension","Description Category","Validation Step","Performance Criteria","Considerations","Dictionary","Supervised","Unsupervised: Topic Model","Unsupervised: Text Scaling","Source / References","Comment"</t>
   </si>
@@ -181,30 +182,15 @@
     <t>Substantive Phase</t>
   </si>
   <si>
-    <t>Construct Definition</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Competence building and dimensionality understanding</t>
-  </si>
-  <si>
-    <t>Have I conducted a literature review or consulted with domain experts to gain a comprehensive understanding of the construct and its relevant dimensions?</t>
-  </si>
-  <si>
     <t>Recommended</t>
   </si>
   <si>
     <t>tba.</t>
   </si>
   <si>
-    <t>Manual precoding for human detectability</t>
-  </si>
-  <si>
-    <t>Agreeement between coders</t>
-  </si>
-  <si>
     <t>Have I conducted a pilot study using manual coding to evaluate the inter-rater agreement and reliability on detecting the construct by hand?</t>
   </si>
   <si>
@@ -214,9 +200,6 @@
     <t>Design Decisions</t>
   </si>
   <si>
-    <t>Justification on the choice of dataset</t>
-  </si>
-  <si>
     <t>Justification on the level of analysis (token, word, sentence, paragraph, or document level)</t>
   </si>
   <si>
@@ -274,23 +257,7 @@
     <t>Model Metrics Evaluation</t>
   </si>
   <si>
-    <t>Inspecting confidence strenghts of classifiers</t>
-  </si>
-  <si>
-    <t>Have I assessed the model's confidence level on individual predictions and analyzed the distribution of confidence scores?</t>
-  </si>
-  <si>
-    <t>Inspecting and comparing topic coherence metrics (e..g, C_v, C_p, C_uci, C_umass)</t>
-  </si>
-  <si>
     <t>Have I calculated multiple coherence metrics and compared their consistency and correlation?</t>
-  </si>
-  <si>
-    <t>Inspecting and applying threshold for min. number of (N-)tokens matched</t>
-  </si>
-  <si>
-    <t>Have I defined a reasonable threshold for the minimum number of matched tokens based on the data size, text complexity, and research question?_x000D__x000D_
-Have I assessed the impact of the threshold on the model's performance and sensitivity to noise?</t>
   </si>
   <si>
     <t>Output Inspection</t>
@@ -312,180 +279,257 @@
     <t>Visual inspection of differences between groups (e.g., mean text length, top words used)</t>
   </si>
   <si>
-    <t>Have I compared the relevant text measures (e.g.ideological positions or sentiment scores) between different groups and visualized the differences?</t>
-  </si>
-  <si>
     <t>Error Analysis</t>
   </si>
   <si>
-    <t>Conducting error analysis of oustanding or deliberatively choosen measures</t>
-  </si>
-  <si>
     <t>Have I conducted an error analysis to evaluate the sources and types of errors associated with the measures and identified potential improvements or remedies?</t>
   </si>
   <si>
     <t>Systematic Testing</t>
   </si>
   <si>
+    <t>Conducting functional tests for construct detection</t>
+  </si>
+  <si>
+    <t>Röttger et al. (2021)</t>
+  </si>
+  <si>
+    <t>Conducting word intrusion tasks for human coders in top-words per topic</t>
+  </si>
+  <si>
+    <t>Have I designed and conducted word intrusion tasks to evaluate the human coders' ability to identify the intruder word among the top words in a topic?</t>
+  </si>
+  <si>
+    <t>Chang et al. 2009</t>
+  </si>
+  <si>
+    <t>Back-coding of topics by human coders (based on top-words per topic)</t>
+  </si>
+  <si>
+    <t>Have I conducted back-coding by human coders to evaluate the interpretability and validity of the topics generated by the model?</t>
+  </si>
+  <si>
+    <t>External Phase</t>
+  </si>
+  <si>
+    <t>Measure Interrelation</t>
+  </si>
+  <si>
+    <t>Comparing measures with alternative text-based methods</t>
+  </si>
+  <si>
+    <t>Correlation with alternative measure scores</t>
+  </si>
+  <si>
+    <t>Correspondence to surrogate labels</t>
+  </si>
+  <si>
+    <t>Comparing measures with surrogate labels (e.g., expert surveys; contextual labels, etc.)</t>
+  </si>
+  <si>
+    <t>Have I collected or generated surrogate labels (e.g., expert surveys, contextual labels) to evaluate the model's performance and generalization to new data or domains?</t>
+  </si>
+  <si>
+    <t>Criterion Prediction</t>
+  </si>
+  <si>
+    <t>Testing of substantive and established hypotheses</t>
+  </si>
+  <si>
+    <t>Empirical correspondence to external criteria</t>
+  </si>
+  <si>
+    <t>Continuous Evaluation: Robustness Checks</t>
+  </si>
+  <si>
+    <t>Change to previous measurement outcome</t>
+  </si>
+  <si>
+    <t>Replication of the same study with different levels of aggregation</t>
+  </si>
+  <si>
+    <t>Have I replicated the same study using different levels of aggregation (e.g., token, word, sentence, paragraph, document level) to evaluate their impact on the results?</t>
+  </si>
+  <si>
+    <t>Replication of the same study with a different, but related dataset</t>
+  </si>
+  <si>
+    <t>Have I replicated the same study using a different, but related dataset to evaluate the generalizability and robustness of the analysis?</t>
+  </si>
+  <si>
+    <t>Have I rerun the analysis using different number of topics to evaluate the sensitivity and interpretability of the model?</t>
+  </si>
+  <si>
+    <t>Have I rerun the analysis using different subsets of the data to evaluate the robustness and generalizability of the model?</t>
+  </si>
+  <si>
+    <t>Have I rerun the analysis using different thresholds (e.g., min. number of tokens matched, max. document frequency) to evaluate their impact on the results?</t>
+  </si>
+  <si>
+    <t>Evidence of engagement with the construct</t>
+  </si>
+  <si>
+    <t>Conceptual argumentation</t>
+  </si>
+  <si>
+    <t>Metric assessment</t>
+  </si>
+  <si>
+    <t>Metric comparison</t>
+  </si>
+  <si>
+    <t>Subjective assessment</t>
+  </si>
+  <si>
+    <t>Threshold achievement</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Conducting feature importance analysis</t>
+  </si>
+  <si>
+    <t>Performance Criteria: Best Practices /  Guidelines</t>
+  </si>
+  <si>
+    <t>Rerunning the analysis using different number of topics</t>
+  </si>
+  <si>
+    <t>Rerunning the analysis using different subsets of the data</t>
+  </si>
+  <si>
+    <t>Rerunning the analysis using different thresholds</t>
+  </si>
+  <si>
+    <t>Conducting computational text intrusion tasks</t>
+  </si>
+  <si>
+    <t>Construct Definition &amp; Operationalization</t>
+  </si>
+  <si>
+    <t>Have I conducted a literature review or consulted with domain experts to gain a comprehensive understanding of the construct?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have I justified my operationalization in regard to the greater context and the manifestation and dimensionality of my construct within the textual data? </t>
+  </si>
+  <si>
+    <t>Theoretical justification for the link between the construct and the textual data</t>
+  </si>
+  <si>
+    <t>Empirical justification for the link between the construct and the textual data using human precoding</t>
+  </si>
+  <si>
+    <t>Have I selected a dataset that is representative and relevant to the research question and population of interest? Have I justified the data selection decisions? Have I assessed the quality and completeness of the dataset and checked for potential biases or confounding variables?</t>
+  </si>
+  <si>
+    <t>Justification on data collection decisions (e.g., keywords identification)</t>
+  </si>
+  <si>
+    <t>Inspecting confidence strengths of classifiers</t>
+  </si>
+  <si>
+    <t>Have I assessed the model's confidence level on individual predictions and analysed the distribution of confidence scores?</t>
+  </si>
+  <si>
+    <t>Inspecting and comparing topic coherence metrics (e.g., C_v, C_p, C_uci, C_umass)</t>
+  </si>
+  <si>
+    <t>Have I compared the relevant text measures (e.g. ideological positions or sentiment scores) between different groups and visualized the differences?</t>
+  </si>
+  <si>
+    <t>Conducting error analysis of outstanding or deliberatively chosen measures</t>
+  </si>
+  <si>
     <t>Have I designed and conducted computational intrusion tasks to evaluate the model's sensitivity and specificity to various types of perturbations in the text data?_x000D__x000D_
-Have I analyzed the intrusion results to identify the key features or patterns that the model relies on and validated their relevance and consistency with the research question and domain knowledge?</t>
-  </si>
-  <si>
-    <t>Conducting functional tests for construct detection</t>
-  </si>
-  <si>
-    <t>Have I designed and conducted functional tests to evaluate the model's ability to detect specific patternsin a realistic or simulated scenario?</t>
-  </si>
-  <si>
-    <t>Röttger et al. (2021)</t>
-  </si>
-  <si>
-    <t>Conducting word intrusion tasks for human coders in top-words per topic</t>
-  </si>
-  <si>
-    <t>Have I designed and conducted word intrusion tasks to evaluate the human coders' ability to identify the intruder word among the top words in a topic?</t>
-  </si>
-  <si>
-    <t>Chang et al. 2009</t>
-  </si>
-  <si>
-    <t>Back-coding of topics by human coders (based on top-words per topic)</t>
-  </si>
-  <si>
-    <t>Have I conducted back-coding by human coders to evaluate the interpretability and validity of the topics generated by the model?</t>
-  </si>
-  <si>
-    <t>External Phase</t>
-  </si>
-  <si>
-    <t>Measure Interrelation</t>
-  </si>
-  <si>
-    <t>Comparing measures with hand-labelled data (via e.g., codebook or pairwise comparison)</t>
-  </si>
-  <si>
-    <t>Have I collected and labeled a subset of the data using a codebook or pairwise comparison method to serve as the gold standard for evaluation?</t>
-  </si>
-  <si>
-    <t>Comparing measures with alternative text-based methods</t>
-  </si>
-  <si>
-    <t>Correlation with alternative measure scores</t>
-  </si>
-  <si>
-    <t>Have I compared the measures generated by the model with alternative text-based methods (e.g., topic modeling, sentiment analysis, word embeddings) to assess their interrelationsships?</t>
-  </si>
-  <si>
-    <t>Correspondence to surrogate labels</t>
-  </si>
-  <si>
-    <t>Comparing measures with surrogate labels (e.g., expert surveys; contextual labels, etc.)</t>
-  </si>
-  <si>
-    <t>Have I collected or generated surrogate labels (e.g., expert surveys, contextual labels) to evaluate the model's performance and generalization to new data or domains?</t>
-  </si>
-  <si>
-    <t>Criterion Prediction</t>
-  </si>
-  <si>
-    <t>Testing of substantive and established hypotheses</t>
-  </si>
-  <si>
-    <t>Empirical correspondence to external criteria</t>
-  </si>
-  <si>
-    <t>Have I formulated substantive and established hypotheses about the relationsship of my measures with external criteria? Have I confirmed these relationship empircally?</t>
-  </si>
-  <si>
-    <t>Continuous Evaluation: Robustness Checks</t>
-  </si>
-  <si>
-    <t>Measure Inspection</t>
-  </si>
-  <si>
-    <t>Change to previous measurement outcome</t>
-  </si>
-  <si>
-    <t>Have I rerun the analysis using different preprocessing settings (e.g., stopword removal, stemming, lemmatization) to evaluate their impact on the results?</t>
-  </si>
-  <si>
-    <t>Replication of the same study with different levels of aggregation</t>
-  </si>
-  <si>
-    <t>Have I replicated the same study using different levels of aggregation (e.g., token, word, sentence, paragraph, document level) to evaluate their impact on the results?</t>
-  </si>
-  <si>
-    <t>Replication of the same study with a different, but related dataset</t>
-  </si>
-  <si>
-    <t>Have I replicated the same study using a different, but related dataset to evaluate the generalizability and robustness of the analysis?</t>
-  </si>
-  <si>
-    <t>Have I rerun the analysis using different number of topics to evaluate the sensitivity and interpretability of the model?</t>
-  </si>
-  <si>
-    <t>Have I rerun the analysis using different subsets of the data to evaluate the robustness and generalizability of the model?</t>
-  </si>
-  <si>
-    <t>Have I rerun the analysis using different thresholds (e.g., min. number of tokens matched, max. document frequency) to evaluate their impact on the results?</t>
-  </si>
-  <si>
-    <t>Evidence of engagement with the construct</t>
-  </si>
-  <si>
-    <t>Conceptual argumentation</t>
-  </si>
-  <si>
-    <t>Metric assessment</t>
-  </si>
-  <si>
-    <t>Metric comparison</t>
-  </si>
-  <si>
-    <t>Subjective assessment</t>
-  </si>
-  <si>
-    <t>Threshold achievement</t>
-  </si>
-  <si>
-    <t>Justification on the choice of hyperparameters for the method choosen</t>
-  </si>
-  <si>
-    <t>Have I selected the appropriate hyperparameter settings based on the research question, data characteristics, and model assumptions?</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Conducting feature importance analysis</t>
-  </si>
-  <si>
-    <t>Performance Criteria: Best Practices /  Guidelines</t>
-  </si>
-  <si>
-    <t>Rerunning the analysis using different preprocessing settings</t>
-  </si>
-  <si>
-    <t>Rerunning the analysis using different number of topics</t>
-  </si>
-  <si>
-    <t>Rerunning the analysis using different subsets of the data</t>
-  </si>
-  <si>
-    <t>Rerunning the analysis using different thresholds</t>
-  </si>
-  <si>
-    <t>Have I selected a dataset that is representative and relevant to the research question and population of interest?Have I assessed the quality and completeness of the dataset and checked for potential biases or confounding variables?</t>
-  </si>
-  <si>
-    <t>Conducting computational text intrusion tasks</t>
+Have I analysed the intrusion results to identify the key features or patterns that the model relies on and validated their relevance and consistency with the research question and domain knowledge?</t>
+  </si>
+  <si>
+    <t>Have I designed and conducted functional tests to evaluate the model's ability to detect specific patterns in a realistic or simulated scenario?</t>
+  </si>
+  <si>
+    <t>Agreement between coders</t>
+  </si>
+  <si>
+    <t>Have I collected and labelled a subset of the data using a codebook or pairwise comparison method to serve as the gold standard for evaluation?</t>
+  </si>
+  <si>
+    <t>Have I compared the measures generated by the model with alternative text-based methods (e.g., topic modelling, sentiment analysis, word embeddings) to assess their interrelationships?</t>
+  </si>
+  <si>
+    <t>Have I formulated substantive and established hypotheses about the relationship of my measures with external criteria? Have I confirmed these relationship empirically?</t>
+  </si>
+  <si>
+    <t>Have I rerun the analysis using different preprocessing settings (e.g., stop word removal, stemming, lemmatization) to evaluate their impact on the results?</t>
+  </si>
+  <si>
+    <t>Competence building (context, manifestation, dimensionality)</t>
+  </si>
+  <si>
+    <t>Evaluation of number of (N-)tokens matched</t>
+  </si>
+  <si>
+    <t>Have I evaluated the number of matched tokens based on the data size, text complexity, and research question? Have I assessed the impact of the threshold on the model's performance and sensitivity to noise?</t>
+  </si>
+  <si>
+    <t>Rerunning the analysis using different hyperparameter settings</t>
+  </si>
+  <si>
+    <t>Rerunning the analysis using different preprocessing steps</t>
+  </si>
+  <si>
+    <t>Have I rerun the analysis using different hyperparameter settings to evaluate their impact on the results?</t>
+  </si>
+  <si>
+    <t>Robustness Checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparing measures with human-annotated test set ("gold-standard data")
+</t>
+  </si>
+  <si>
+    <t>Have I designed and conducted computational intrusion tasks to evaluate the model's sensitivity and specificity to various types of perturbations in the text data?Have I analysed the intrusion results to identify the key features or patterns that the model relies on and validated their relevance and consistency with the research question and domain knowledge?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ValiTex Checklist
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This checklist accompanies the ValiTex framework for validating text-based measures of social science constructs by Birkenmaier et al. (2023 forthcoming). 
+https://lukasbirki.shinyapps.io/ValiTex/</t>
+    </r>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+User Instructions for the checklist
+</t>
+  </si>
+  <si>
+    <t>Further information / Literature</t>
+  </si>
+  <si>
+    <t>Theoretical justification for the operationalization /  link between the construct and the textual data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,8 +664,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,8 +924,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -953,8 +1052,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -997,8 +1129,18 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1018,9 +1160,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1033,11 +1172,90 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1065,23 +1283,140 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency 2" xfId="43" xr:uid="{5BAFF357-63AE-4584-81BB-4677A5052A4F}"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hyperlink 2" xfId="45" xr:uid="{500D5B62-2089-4B2E-B524-217028EE5E52}"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="44" xr:uid="{C0253C11-87C3-488E-8EE6-7C4169B28B6D}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="24">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1135,26 +1470,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1164,7 +1479,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{D20F15D1-56D3-4AED-9BDC-148EA0D651EA}">
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="totalRow" dxfId="6"/>
+      <tableStyleElement type="firstColumn" dxfId="5"/>
+      <tableStyleElement type="lastColumn" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1202,22 +1529,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="file" displayName="file" ref="A1:M33" tableType="queryTable" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="file" displayName="file" ref="A1:M34" tableType="queryTable" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:M34" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="Optional"/>
+        <filter val="Recommended"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="ID" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="ID" queryTableFieldId="1" dataDxfId="21"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Validation Step" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Considerations" queryTableFieldId="7" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Performance Criteria" queryTableFieldId="6" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{8AB4732D-0FBD-4B55-8E38-8AC5F21D1442}" uniqueName="4" name="Performance Criteria: Best Practices /  Guidelines" queryTableFieldId="17" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Phase" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Dimension" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Dictionary" queryTableFieldId="8" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Supervised" queryTableFieldId="9" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Unsupervised: Topic Model" queryTableFieldId="10" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Unsupervised: Text Scaling" queryTableFieldId="11" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Source / References" queryTableFieldId="12" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="Comment" queryTableFieldId="13" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Considerations" queryTableFieldId="7" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Performance Criteria" queryTableFieldId="6" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{8AB4732D-0FBD-4B55-8E38-8AC5F21D1442}" uniqueName="4" name="Performance Criteria: Best Practices /  Guidelines" queryTableFieldId="17" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Phase" queryTableFieldId="2" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Dimension" queryTableFieldId="3" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Dictionary" queryTableFieldId="8" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Supervised" queryTableFieldId="9" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Unsupervised: Topic Model" queryTableFieldId="10" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Unsupervised: Text Scaling" queryTableFieldId="11" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Source / References" queryTableFieldId="12" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="Comment" queryTableFieldId="13" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1520,17 +1854,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.08984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.7265625" style="17" customWidth="1"/>
     <col min="4" max="5" width="18.453125" customWidth="1"/>
     <col min="6" max="6" width="26.1796875" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.26953125" style="2" customWidth="1"/>
@@ -1546,19 +1880,19 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>37</v>
@@ -1585,103 +1919,103 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>142</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>155</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>53</v>
@@ -1696,1137 +2030,1180 @@
         <v>53</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>129</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>70</v>
+        <v>117</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>81</v>
+        <v>130</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>83</v>
+        <v>132</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>85</v>
+        <v>143</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>92</v>
+        <v>80</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>95</v>
+        <v>134</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>97</v>
+        <v>122</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>99</v>
+        <v>84</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>105</v>
+        <v>89</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="C26" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D33" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="10">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="10">
-        <v>28</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="10">
-        <v>29</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="10">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="10">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="10">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>50</v>
+      <c r="D34" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2838,6 +3215,413 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3AD289-B686-483E-96DB-CBA8C4B93650}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.1796875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="51.08984375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="40.90625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="21" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A25" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:XFC1048576"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>

--- a/data/Framework.xlsx
+++ b/data/Framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birkenls\Documents\Git-Projekte\Shiny App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D642CB86-9A60-4674-AC3E-58A092835D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE279FE-DBFD-4284-BD56-60197F3F1DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Framework!$A$1:$M$35</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Framework!$A$1:$M$34</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="137">
   <si>
     <t>Phase</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Have I justified the preprocessing decisions based on the research question, data quality, and/or computational efficiency?</t>
   </si>
   <si>
-    <t>Denny and Spirling (2018)</t>
-  </si>
-  <si>
     <t>Justification on the choice of method</t>
   </si>
   <si>
@@ -112,22 +109,10 @@
     <t>Structural Phase</t>
   </si>
   <si>
-    <t>Model Inspection</t>
-  </si>
-  <si>
-    <t>Have I considered different feature importance metrics and their effects on the model's performance? Have I considered the interpretability and relevance of the top-ranked features in the context of the research question?</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
-    <t>https://christophm.github.io/interpretable-ml-book/</t>
-  </si>
-  <si>
     <t>Inspecting XAI visualizations (LIME, ICE, Partial Dependence, Breakdown Plot)</t>
-  </si>
-  <si>
-    <t>Have I chosen appropriate XAI techniques based on the model complexity, data size, and research question? Have I checked for the stability and consistency of the explanations across different subsets of data?</t>
   </si>
   <si>
     <t>Identifying the frequency of (N-)words in each topic</t>
@@ -137,9 +122,6 @@
   </si>
   <si>
     <t>Inspecting individual word weights in the model</t>
-  </si>
-  <si>
-    <t>Have I interpreted the word weights in the context of the research question and domain knowledge, and avoided overfitting to idiosyncratic features of the training data?</t>
   </si>
   <si>
     <t>Model Metrics Evaluation</t>
@@ -273,9 +255,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Conducting feature importance analysis</t>
   </si>
   <si>
     <t>Performance Criteria: Best Practices /  Guidelines</t>
@@ -432,6 +411,64 @@
   </si>
   <si>
     <t>Correspondence with alternative measure scores</t>
+  </si>
+  <si>
+    <t>Krippendorf (2018)</t>
+  </si>
+  <si>
+    <t>Krippendorf (2018), Chapter 11 (Reliability)</t>
+  </si>
+  <si>
+    <t>Krippendorf (2018), Chapter 9 (Analytical Construct)</t>
+  </si>
+  <si>
+    <t>Krippendorf (2018), Chapter 9 (Analytical Construct); 
+Clark and Watson (2019)</t>
+  </si>
+  <si>
+    <t>Grimmer et al. (2022), Chapter 4 (Selecting Documents);
+Sen et al. (2021)</t>
+  </si>
+  <si>
+    <t>For an illustration, see Jankowski &amp; Huber (2022)</t>
+  </si>
+  <si>
+    <t>Grimmer et al. (2022), Chapter 5 (Bag of Words); 
+Denny and Spirling (2018)</t>
+  </si>
+  <si>
+    <t>Grimmer &amp; Steward (2013);
+Grimmer et al. (2022)</t>
+  </si>
+  <si>
+    <t>Molnar (2020);
+Lindartos et al. (2020)</t>
+  </si>
+  <si>
+    <t>Model Feature Inspection</t>
+  </si>
+  <si>
+    <t>Have I considered explainable AI (XAI) techniques based on the model complexity, data size, and research question? Have I considered the interpretability and relevance of the top-ranked features in the context of the research question?</t>
+  </si>
+  <si>
+    <t>Have I interpreted the word weights in the context of the research question and domain knowledge?</t>
+  </si>
+  <si>
+    <t>Slapin and Proksch 2008</t>
+  </si>
+  <si>
+    <t>Monroe, Colaresi, and Quinn (2008)</t>
+  </si>
+  <si>
+    <t>Moradi &amp; Samwald (2022);
+Andersen &amp; Maalej (2022)</t>
+  </si>
+  <si>
+    <t>Grimmer et al. (2022), Chapter 13 (Topic Models)</t>
+  </si>
+  <si>
+    <t>Adcock and Collier (2013); 
+Grimmer et al. (2022), Chapter 20 (Checking Performance)</t>
   </si>
 </sst>
 </file>
@@ -1444,8 +1481,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="file" displayName="file" ref="A1:M35" tableType="queryTable" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="file" displayName="file" ref="A1:M34" tableType="queryTable" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="ID" queryTableFieldId="1" dataDxfId="12"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Validation Step" queryTableFieldId="5" dataDxfId="11"/>
@@ -1762,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1778,7 +1815,8 @@
     <col min="7" max="7" width="22.26953125" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" customWidth="1"/>
     <col min="10" max="10" width="15.26953125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.54296875" style="2" customWidth="1"/>
     <col min="13" max="13" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1788,7 +1826,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1800,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1832,20 +1870,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>13</v>
@@ -1859,8 +1897,8 @@
       <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>14</v>
+      <c r="L2" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>12</v>
@@ -1871,20 +1909,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
@@ -1899,7 +1937,7 @@
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>12</v>
@@ -1910,20 +1948,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>16</v>
@@ -1938,7 +1976,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>12</v>
@@ -1949,13 +1987,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="3" t="s">
@@ -1976,8 +2014,8 @@
       <c r="K5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>14</v>
+      <c r="L5" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>12</v>
@@ -1994,7 +2032,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
@@ -2016,7 +2054,7 @@
         <v>13</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>12</v>
@@ -2027,13 +2065,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="3" t="s">
@@ -2054,8 +2092,8 @@
       <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>14</v>
+      <c r="L7" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>12</v>
@@ -2072,7 +2110,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
@@ -2093,8 +2131,8 @@
       <c r="K8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>22</v>
+      <c r="L8" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>12</v>
@@ -2102,116 +2140,114 @@
     </row>
     <row r="9" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="87" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="I11" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>12</v>
@@ -2219,38 +2255,38 @@
     </row>
     <row r="12" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="I12" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>12</v>
@@ -2258,113 +2294,113 @@
     </row>
     <row r="13" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="I13" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="J14" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>14</v>
@@ -2373,37 +2409,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>14</v>
@@ -2412,37 +2448,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>14</v>
@@ -2451,28 +2487,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>13</v>
@@ -2490,25 +2526,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>13</v>
@@ -2529,37 +2565,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>14</v>
@@ -2568,25 +2604,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="145" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>16</v>
@@ -2601,160 +2637,160 @@
         <v>16</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
-        <v>20</v>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>99</v>
+        <v>43</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="I22" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
-        <v>21</v>
+    <row r="23" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="I23" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="6" t="s">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>112</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>14</v>
@@ -2763,25 +2799,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>16</v>
@@ -2795,29 +2831,29 @@
       <c r="K26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="8" t="s">
-        <v>14</v>
+      <c r="L26" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>55</v>
@@ -2841,64 +2877,64 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
-        <v>26</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="13" t="s">
+    <row r="28" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
-        <v>27</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>104</v>
-      </c>
       <c r="D29" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>13</v>
@@ -2919,37 +2955,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>14</v>
@@ -2960,23 +2996,23 @@
     </row>
     <row r="31" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>16</v>
@@ -2997,37 +3033,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>14</v>
@@ -3036,37 +3072,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>14</v>
@@ -3077,23 +3113,23 @@
     </row>
     <row r="34" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>16</v>
@@ -3111,45 +3147,6 @@
         <v>14</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A35" s="9">
-        <v>33</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3182,14 +3179,14 @@
   <sheetData>
     <row r="1" spans="1:16383" s="2" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
       <c r="F1" s="38" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
@@ -19581,7 +19578,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:16383" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -19589,7 +19586,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -19597,66 +19594,66 @@
     </row>
     <row r="4" spans="1:16383" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:16383" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="20" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:16383" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:16383" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:16383" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -19669,7 +19666,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E9" s="19"/>
     </row>
@@ -19682,13 +19679,13 @@
         <v>21</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:16383" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
@@ -19697,98 +19694,98 @@
     </row>
     <row r="12" spans="1:16383" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="22" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:16383" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:16383" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:16383" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="22" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:16383" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="22" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="29"/>
@@ -19797,59 +19794,59 @@
     </row>
     <row r="20" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="23" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="23" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B22" s="34"/>
       <c r="C22" s="23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="23" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
@@ -19858,79 +19855,79 @@
     </row>
     <row r="25" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="26" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B27" s="34"/>
       <c r="C27" s="26" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B29" s="34"/>
       <c r="C29" s="26" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B30" s="34"/>
       <c r="C30" s="26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E30" s="25"/>
     </row>

--- a/data/Framework.xlsx
+++ b/data/Framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birkenls\Documents\Git-Projekte\Shiny App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE279FE-DBFD-4284-BD56-60197F3F1DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B2EE43-CE14-4F80-A0A0-23B9597D6CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="150">
   <si>
     <t>Phase</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Recommended</t>
-  </si>
-  <si>
-    <t>tba.</t>
   </si>
   <si>
     <t>Have I conducted a pilot study using manual coding to evaluate the inter-rater agreement and reliability on detecting the construct by hand?</t>
@@ -401,9 +398,6 @@
     <t>Conducting qualitative error analysis of outstanding or deliberatively chosen observations</t>
   </si>
   <si>
-    <t>tba</t>
-  </si>
-  <si>
     <t>Have I conducted an error analysis to qualitaitvely evaluate the sources and types of errors associated with the measures and identified potential improvements or remedies?</t>
   </si>
   <si>
@@ -411,9 +405,6 @@
   </si>
   <si>
     <t>Correspondence with alternative measure scores</t>
-  </si>
-  <si>
-    <t>Krippendorf (2018)</t>
   </si>
   <si>
     <t>Krippendorf (2018), Chapter 11 (Reliability)</t>
@@ -430,19 +421,12 @@
 Sen et al. (2021)</t>
   </si>
   <si>
-    <t>For an illustration, see Jankowski &amp; Huber (2022)</t>
-  </si>
-  <si>
     <t>Grimmer et al. (2022), Chapter 5 (Bag of Words); 
 Denny and Spirling (2018)</t>
   </si>
   <si>
     <t>Grimmer &amp; Steward (2013);
 Grimmer et al. (2022)</t>
-  </si>
-  <si>
-    <t>Molnar (2020);
-Lindartos et al. (2020)</t>
   </si>
   <si>
     <t>Model Feature Inspection</t>
@@ -470,6 +454,63 @@
     <t>Adcock and Collier (2013); 
 Grimmer et al. (2022), Chapter 20 (Checking Performance)</t>
   </si>
+  <si>
+    <t>Have I compared the relevant characteristics (e.g., word cooccurrences) or text measures (e.g. ideological positions or sentiment scores) between different groups?</t>
+  </si>
+  <si>
+    <t>Molnar (2020);
+Lindartos et al. (2020); 
+For a practical introduction, see Awesome XAI (2023)</t>
+  </si>
+  <si>
+    <t>Zhang et al. (2018); 
+Wu et al. (2019)</t>
+  </si>
+  <si>
+    <t>Have I conducted an error analysis to compare the performance across known subgroups?</t>
+  </si>
+  <si>
+    <t>Ying et al. (2020)</t>
+  </si>
+  <si>
+    <t>Grimmer et al. (2022),  Chapter 20 (Checking Performance)</t>
+  </si>
+  <si>
+    <t>Grimmer et al. (2022), Chapter 20 (Checking Performance)</t>
+  </si>
+  <si>
+    <t>For an application, see Jankowski &amp; Huber (2022)</t>
+  </si>
+  <si>
+    <t>For an application, see Goet (2019)</t>
+  </si>
+  <si>
+    <t>For an application, see Müller (2020)</t>
+  </si>
+  <si>
+    <t>For an application, see Huang et al. (2020)</t>
+  </si>
+  <si>
+    <t>For an application, see van Atteveldt et al. (2021)</t>
+  </si>
+  <si>
+    <t>For an application, see Boukes et al. (2019)</t>
+  </si>
+  <si>
+    <t>For an application, see Baden et al. (2020)</t>
+  </si>
+  <si>
+    <t>For an application see Van der Velden et al. (2018)</t>
+  </si>
+  <si>
+    <t>For an application see Yarchi et al. (2020)</t>
+  </si>
+  <si>
+    <t>Denny and Spirling (2018)</t>
+  </si>
+  <si>
+    <t>Arnold et al. (2023)</t>
+  </si>
 </sst>
 </file>
 
@@ -478,7 +519,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,6 +693,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1801,14 +1848,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="65.453125" style="2" customWidth="1"/>
     <col min="3" max="3" width="38.7265625" style="17" customWidth="1"/>
     <col min="4" max="5" width="18.453125" customWidth="1"/>
     <col min="6" max="6" width="26.1796875" style="2" customWidth="1"/>
@@ -1826,7 +1873,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1838,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1870,20 +1917,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>13</v>
@@ -1898,7 +1945,7 @@
         <v>13</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>12</v>
@@ -1909,20 +1956,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
@@ -1937,7 +1984,7 @@
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>12</v>
@@ -1948,35 +1995,35 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>12</v>
@@ -1987,20 +2034,20 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>13</v>
@@ -2015,7 +2062,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>12</v>
@@ -2026,20 +2073,20 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>13</v>
@@ -2054,7 +2101,7 @@
         <v>13</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>12</v>
@@ -2065,20 +2112,20 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>13</v>
@@ -2093,7 +2140,7 @@
         <v>13</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>12</v>
@@ -2104,20 +2151,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>13</v>
@@ -2132,7 +2179,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>12</v>
@@ -2143,35 +2190,35 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M9" s="6"/>
     </row>
@@ -2180,35 +2227,35 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>12</v>
@@ -2219,35 +2266,35 @@
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="I11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>12</v>
@@ -2258,35 +2305,35 @@
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="I12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>12</v>
@@ -2297,35 +2344,35 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="I13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>12</v>
@@ -2336,35 +2383,35 @@
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>12</v>
@@ -2375,20 +2422,20 @@
         <v>15</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>13</v>
@@ -2403,7 +2450,7 @@
         <v>13</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>12</v>
@@ -2414,35 +2461,35 @@
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>12</v>
@@ -2453,23 +2500,23 @@
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>13</v>
@@ -2481,31 +2528,31 @@
         <v>13</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" s="35" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>13</v>
@@ -2519,8 +2566,8 @@
       <c r="K18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>14</v>
+      <c r="L18" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>12</v>
@@ -2531,20 +2578,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>117</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>13</v>
@@ -2558,8 +2605,8 @@
       <c r="K19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>14</v>
+      <c r="L19" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>12</v>
@@ -2570,35 +2617,35 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>12</v>
@@ -2609,74 +2656,74 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="I22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>12</v>
@@ -2687,35 +2734,35 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="I23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>12</v>
@@ -2726,20 +2773,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>13</v>
@@ -2754,7 +2801,7 @@
         <v>13</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>12</v>
@@ -2765,35 +2812,35 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="H25" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>12</v>
@@ -2804,35 +2851,35 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="D26" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="H26" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>12</v>
@@ -2843,35 +2890,35 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>12</v>
@@ -2882,20 +2929,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>13</v>
@@ -2910,7 +2957,7 @@
         <v>13</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="M28" s="10" t="s">
         <v>12</v>
@@ -2921,20 +2968,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>13</v>
@@ -2949,7 +2996,7 @@
         <v>13</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="M29" s="10" t="s">
         <v>12</v>
@@ -2960,35 +3007,35 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="D30" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="M30" s="10" t="s">
         <v>12</v>
@@ -2999,35 +3046,35 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="D31" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="M31" s="10" t="s">
         <v>12</v>
@@ -3038,35 +3085,35 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>13</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>12</v>
@@ -3077,35 +3124,35 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="M33" s="10" t="s">
         <v>12</v>
@@ -3116,41 +3163,42 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3179,14 +3227,14 @@
   <sheetData>
     <row r="1" spans="1:16383" s="2" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
       <c r="F1" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
@@ -19578,7 +19626,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:16383" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -19586,7 +19634,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -19594,98 +19642,98 @@
     </row>
     <row r="4" spans="1:16383" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:16383" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:16383" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:16383" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:16383" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:16383" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:16383" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:16383" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
@@ -19694,98 +19742,98 @@
     </row>
     <row r="12" spans="1:16383" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:16383" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:16383" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:16383" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:16383" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="29"/>
@@ -19794,59 +19842,59 @@
     </row>
     <row r="20" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="34"/>
       <c r="C22" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
@@ -19855,79 +19903,79 @@
     </row>
     <row r="25" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="34"/>
       <c r="C27" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="34"/>
       <c r="C29" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="34"/>
       <c r="C30" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="25"/>
     </row>
